--- a/inline/table_result.xlsx
+++ b/inline/table_result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>inline</t>
     <phoneticPr fontId="1"/>
@@ -31,6 +31,30 @@
   </si>
   <si>
     <t>default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c++ 11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ll_inline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ll_static</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ll_const</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ll_default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gcc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -159,7 +183,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -179,7 +203,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -208,11 +232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38870400"/>
-        <c:axId val="38900864"/>
+        <c:axId val="132503424"/>
+        <c:axId val="132504960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38870400"/>
+        <c:axId val="132503424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -221,7 +245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38900864"/>
+        <c:crossAx val="132504960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -229,7 +253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38900864"/>
+        <c:axId val="132504960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -271,7 +295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38870400"/>
+        <c:crossAx val="132503424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -360,27 +384,27 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$8</c:f>
+              <c:f>Sheet1!$A$6:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inline</c:v>
+                  <c:v>ll_inline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>static</c:v>
+                  <c:v>ll_static</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>const</c:v>
+                  <c:v>ll_const</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>default</c:v>
+                  <c:v>ll_default</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$8</c:f>
+              <c:f>Sheet1!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -409,11 +433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107592704"/>
-        <c:axId val="110301952"/>
+        <c:axId val="133197184"/>
+        <c:axId val="133198976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107592704"/>
+        <c:axId val="133197184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110301952"/>
+        <c:crossAx val="133198976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -430,7 +454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110301952"/>
+        <c:axId val="133198976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +496,361 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107592704"/>
+        <c:crossAx val="133197184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>inline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>const</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ll_inline</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ll_static</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ll_const</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ll_default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.86932399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.826928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94256890000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84361600000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97345099999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="45956480"/>
+        <c:axId val="104715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45956480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45956480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>inline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>const</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ll_inline</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ll_static</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ll_const</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ll_default</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>c++ 11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>inline</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>const</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ll_inline</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ll_static</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ll_const</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ll_default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>0.89065700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83425199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94696999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82902299999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98150700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0062500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.01302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0051699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86932399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.826928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94256890000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84361600000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97345099999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.00444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.00745</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.00553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="62087936"/>
+        <c:axId val="62089472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62087936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62089472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62089472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62087936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -495,13 +873,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -525,13 +903,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -546,6 +924,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -841,76 +1279,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0.89065700000000003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.83425199999999999</v>
+        <v>0.89065700000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.94696999999999998</v>
+        <v>0.83425199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.82902299999999995</v>
+        <v>0.94696999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.98150700000000002</v>
+        <v>0.82902299999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0062500000000001</v>
+        <v>0.98150700000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1.01302</v>
+        <v>1.0062500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.01302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.0051699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.86932399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.826928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0.94256890000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>1.0051699999999999</v>
+      <c r="B14">
+        <v>0.84361600000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0.97345099999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1.00444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1.00745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1.00553</v>
       </c>
     </row>
   </sheetData>
